--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F8" s="3">
         <v>92000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>67300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>40200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>31500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>26300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>17400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F9" s="3">
         <v>59200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>44500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>29400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>23700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>21200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F10" s="3">
         <v>32800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>22800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,28 +849,34 @@
         <v>5400</v>
       </c>
       <c r="E12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,55 +904,67 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>500</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>300</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F17" s="3">
         <v>88400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>65100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>38600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>34300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>24600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,124 +1075,150 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-10900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,10 +1244,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>10900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>276000</v>
+      </c>
+      <c r="F41" s="3">
         <v>312500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>277000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>54300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>49800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,124 +1771,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F43" s="3">
         <v>34500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>34400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>16200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F44" s="3">
         <v>60300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>42700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>34300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>30300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>17800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>415900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>403600</v>
+      </c>
+      <c r="F46" s="3">
         <v>418900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>361800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>92400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>102800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>83800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,37 +1946,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F48" s="3">
         <v>35100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>34500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>31900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>30500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>28000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>491600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>451900</v>
+      </c>
+      <c r="F54" s="3">
         <v>454800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>397100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>125200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>133700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>112200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42500</v>
+        <v>48200</v>
       </c>
       <c r="E57" s="3">
-        <v>31000</v>
+        <v>26900</v>
       </c>
       <c r="F57" s="3">
-        <v>14800</v>
+        <v>38300</v>
       </c>
       <c r="G57" s="3">
-        <v>19600</v>
+        <v>27400</v>
       </c>
       <c r="H57" s="3">
-        <v>18100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
+        <v>11700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F58" s="3">
         <v>9100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
+        <v>9600</v>
       </c>
       <c r="E59" s="3">
-        <v>3400</v>
+        <v>9700</v>
       </c>
       <c r="F59" s="3">
-        <v>7100</v>
+        <v>8700</v>
       </c>
       <c r="G59" s="3">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="H59" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
+        <v>10200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>32800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F60" s="3">
         <v>56200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>40400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>25200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>47400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F61" s="3">
         <v>21800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>24900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>30800</v>
       </c>
       <c r="H61" s="3">
         <v>30900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>10900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F66" s="3">
         <v>78000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>65300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>52800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>56000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>78400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,25 +2674,31 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>199500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>199500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>149500</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-141700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-145800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-136300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-129700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-122200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>384100</v>
+      </c>
+      <c r="F76" s="3">
         <v>376800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>331800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-127200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-121800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-115700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
         <v>2100</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>17200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>37700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>256500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>22900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>46200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="F102" s="3">
         <v>35500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>241600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>26300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E8" s="3">
         <v>97100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E9" s="3">
         <v>59400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>65000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E10" s="3">
         <v>37700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,13 +853,14 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E12" s="3">
         <v>5400</v>
@@ -855,28 +869,31 @@
         <v>5400</v>
       </c>
       <c r="G12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,51 +927,57 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>300</v>
       </c>
       <c r="L14" s="3">
         <v>300</v>
       </c>
       <c r="M14" s="3">
+        <v>300</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
@@ -963,11 +986,11 @@
         <v>600</v>
       </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E17" s="3">
         <v>95300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,92 +1110,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
@@ -1171,54 +1211,60 @@
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,10 +1296,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,11 +1473,11 @@
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E41" s="3">
         <v>246400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>276000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>312500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>277000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1867,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E43" s="3">
         <v>36300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E44" s="3">
         <v>120700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>30300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E46" s="3">
         <v>415900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>403600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>418900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>361800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>83800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2057,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E48" s="3">
         <v>74200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,34 +2209,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
+      <c r="K52" s="3">
+        <v>400</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>11</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E54" s="3">
         <v>491600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>451900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>397100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,69 +2357,73 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E57" s="3">
         <v>48200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>14200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
@@ -2297,122 +2431,134 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E60" s="3">
         <v>72000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E61" s="3">
         <v>16700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E62" s="3">
         <v>10900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2428,8 +2574,8 @@
       <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E66" s="3">
         <v>99700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>65300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,25 +2848,28 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>199500</v>
       </c>
       <c r="J70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="K70" s="3">
         <v>149500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-140300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-141700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-136300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-129700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E76" s="3">
         <v>392000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>384100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>376800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>331800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-127200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-121800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-115700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1900</v>
       </c>
       <c r="I83" s="3">
         <v>1900</v>
       </c>
       <c r="J83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-13300</v>
       </c>
       <c r="I89" s="3">
         <v>-13300</v>
       </c>
       <c r="J89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>17200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5000</v>
       </c>
       <c r="I94" s="3">
         <v>-5000</v>
       </c>
       <c r="J94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>37700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>256500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>46200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>35500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>241600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E8" s="3">
         <v>113300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>92000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E9" s="3">
         <v>79700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>65000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E10" s="3">
         <v>33600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,16 +867,17 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5400</v>
       </c>
       <c r="F12" s="3">
         <v>5400</v>
@@ -872,28 +886,31 @@
         <v>5400</v>
       </c>
       <c r="H12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,57 +947,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>300</v>
       </c>
       <c r="M14" s="3">
         <v>300</v>
       </c>
       <c r="N14" s="3">
+        <v>300</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -989,11 +1012,11 @@
         <v>600</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E17" s="3">
         <v>121500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>95300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,101 +1144,108 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
@@ -1214,62 +1254,68 @@
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1299,10 +1345,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,11 +1537,11 @@
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E41" s="3">
         <v>222300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>246400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>276000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>312500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>277000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1960,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E43" s="3">
         <v>46000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E44" s="3">
         <v>143000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>390900</v>
+      </c>
+      <c r="E46" s="3">
         <v>429300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>415900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>403600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>418900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>361800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2165,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E48" s="3">
         <v>84100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,37 +2329,40 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
+      <c r="L52" s="3">
+        <v>400</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>11</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>486600</v>
+      </c>
+      <c r="E54" s="3">
         <v>518000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>491600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>451900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>454800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>397100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E57" s="3">
         <v>51600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,28 +2539,28 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>14200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
@@ -2434,84 +2568,93 @@
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E60" s="3">
         <v>66300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,49 +2662,52 @@
         <v>50200</v>
       </c>
       <c r="E61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F61" s="3">
         <v>16700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E62" s="3">
         <v>11600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +2723,8 @@
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E66" s="3">
         <v>128100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>99700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,25 +3019,28 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>199500</v>
       </c>
       <c r="K70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="L70" s="3">
         <v>149500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-136300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-129700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>379400</v>
+      </c>
+      <c r="E76" s="3">
         <v>389900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>392000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>384100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>376800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>331800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-127200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-121800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-115700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1900</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
       </c>
       <c r="K83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-13300</v>
       </c>
       <c r="J89" s="3">
         <v>-13300</v>
       </c>
       <c r="K89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-11700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>17200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5000</v>
       </c>
       <c r="J94" s="3">
         <v>-5000</v>
       </c>
       <c r="K94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,69 +4076,75 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>18200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>37700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>256500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>241600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E8" s="3">
         <v>94400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>113300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>92000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E9" s="3">
         <v>68900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E10" s="3">
         <v>25500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,19 +880,20 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E12" s="3">
         <v>7400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5400</v>
       </c>
       <c r="G12" s="3">
         <v>5400</v>
@@ -889,28 +902,31 @@
         <v>5400</v>
       </c>
       <c r="I12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,63 +966,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>300</v>
       </c>
       <c r="N14" s="3">
         <v>300</v>
       </c>
       <c r="O14" s="3">
+        <v>300</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
@@ -1015,11 +1037,11 @@
         <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E17" s="3">
         <v>112900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,110 +1177,117 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1257,69 +1296,75 @@
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1348,10 +1393,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,11 +1600,11 @@
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>11</v>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E41" s="3">
         <v>214600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>222300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>246400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>276000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>312500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>277000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E43" s="3">
         <v>29800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E44" s="3">
         <v>132400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>143000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>332200</v>
+      </c>
+      <c r="E46" s="3">
         <v>390900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>429300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>415900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>403600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>418900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>361800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E48" s="3">
         <v>90700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,40 +2448,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>800</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
+      <c r="M52" s="3">
+        <v>400</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>11</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E54" s="3">
         <v>486600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>518000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>491600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>451900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>454800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>397100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,81 +2618,85 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E57" s="3">
         <v>30500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>25100</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>14200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>11</v>
@@ -2571,146 +2704,158 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E59" s="3">
         <v>15100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E60" s="3">
         <v>45700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>50200</v>
       </c>
       <c r="F61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="G61" s="3">
         <v>16700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2726,8 +2871,8 @@
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E66" s="3">
         <v>107200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>128100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3022,25 +3189,28 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>199500</v>
       </c>
       <c r="L70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="M70" s="3">
         <v>149500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-194900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-169800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-145800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-136300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-129700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>367100</v>
+      </c>
+      <c r="E76" s="3">
         <v>379400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>389900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>376800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>331800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-127200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-121800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-115700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
       </c>
       <c r="L83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-13300</v>
       </c>
       <c r="K89" s="3">
         <v>-13300</v>
       </c>
       <c r="L89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,40 +3963,43 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>17200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-5000</v>
       </c>
       <c r="K94" s="3">
         <v>-5000</v>
       </c>
       <c r="L94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,57 +4321,63 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>37700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>256500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>11</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>11</v>
@@ -4146,8 +4394,8 @@
       <c r="J101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>241600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E8" s="3">
         <v>101900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E9" s="3">
         <v>76500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E10" s="3">
         <v>25400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,22 +894,23 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5400</v>
       </c>
       <c r="H12" s="3">
         <v>5400</v>
@@ -905,28 +919,31 @@
         <v>5400</v>
       </c>
       <c r="J12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,69 +986,75 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
-      </c>
-      <c r="N14" s="3">
-        <v>300</v>
       </c>
       <c r="O14" s="3">
         <v>300</v>
       </c>
       <c r="P14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -1040,11 +1063,11 @@
         <v>600</v>
       </c>
       <c r="K15" s="3">
+        <v>600</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E17" s="3">
         <v>126500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,22 +1315,22 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1299,63 +1339,69 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,11 +1409,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1396,10 +1442,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1632,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E41" s="3">
         <v>159100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>214600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>246400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>276000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>312500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>277000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E43" s="3">
         <v>36000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E44" s="3">
         <v>121700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>132400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>143000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>120700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E46" s="3">
         <v>332200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>390900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>429300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>415900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>403600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>418900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>361800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>102800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E48" s="3">
         <v>129900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>90700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,43 +2568,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
       </c>
       <c r="K52" s="3">
+        <v>800</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>11</v>
+      <c r="N52" s="3">
+        <v>400</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>11</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1475500</v>
+      </c>
+      <c r="E54" s="3">
         <v>468000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>486600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>518000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>491600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>451900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>454800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>397100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,87 +2749,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E57" s="3">
         <v>53100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>25100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>14200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
@@ -2707,158 +2841,170 @@
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E60" s="3">
         <v>89000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>50200</v>
       </c>
       <c r="F61" s="3">
         <v>50200</v>
       </c>
       <c r="G61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H61" s="3">
         <v>16700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E62" s="3">
         <v>11800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2874,8 +3020,8 @@
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1211500</v>
+      </c>
+      <c r="E66" s="3">
         <v>100900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,25 +3360,28 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>199500</v>
       </c>
       <c r="M70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="N70" s="3">
         <v>149500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-222100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-194900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-169800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-141700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-145800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-136300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-129700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E76" s="3">
         <v>367100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>379400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>389900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>384100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>376800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>331800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-127200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-121800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-115700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1900</v>
       </c>
       <c r="L83" s="3">
         <v>1900</v>
       </c>
       <c r="M83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-13300</v>
       </c>
       <c r="L89" s="3">
         <v>-13300</v>
       </c>
       <c r="M89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-23400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>17200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-5000</v>
       </c>
       <c r="L94" s="3">
         <v>-5000</v>
       </c>
       <c r="M94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>37700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>256500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4379,8 +4628,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>11</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>11</v>
@@ -4397,8 +4646,8 @@
       <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>965900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-55500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>241600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E8" s="3">
         <v>108200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>101900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>92000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E9" s="3">
         <v>75500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E10" s="3">
         <v>32700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,25 +907,26 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14900</v>
+        <v>12900</v>
       </c>
       <c r="E12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5400</v>
       </c>
       <c r="I12" s="3">
         <v>5400</v>
@@ -922,28 +935,31 @@
         <v>5400</v>
       </c>
       <c r="K12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
-      </c>
-      <c r="O14" s="3">
-        <v>300</v>
       </c>
       <c r="P14" s="3">
         <v>300</v>
       </c>
       <c r="Q14" s="3">
+        <v>300</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,19 +1067,19 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1066,11 +1088,11 @@
         <v>600</v>
       </c>
       <c r="L15" s="3">
+        <v>600</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E17" s="3">
         <v>133800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,128 +1244,135 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1342,66 +1381,72 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,11 +1457,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1445,10 +1490,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,17 +1721,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -1679,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1125000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>214600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>222300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>246400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>276000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>312500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>277000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E43" s="3">
         <v>36700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E44" s="3">
         <v>145500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>121700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>132400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>143000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>120700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1264100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1325000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>332200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>390900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>429300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>415900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>403600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>418900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>361800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>102800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E48" s="3">
         <v>146000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>129900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>90700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>84100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,46 +2687,49 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
       <c r="L52" s="3">
+        <v>800</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>11</v>
+      <c r="O52" s="3">
+        <v>400</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>11</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1466500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1475500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>468000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>486600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>518000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>491600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>451900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>454800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>397100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E57" s="3">
         <v>51500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,37 +2939,37 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>25100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>14200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>11</v>
@@ -2844,170 +2977,182 @@
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E60" s="3">
         <v>73100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1127300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>50200</v>
       </c>
       <c r="G61" s="3">
         <v>50200</v>
       </c>
       <c r="H61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="I61" s="3">
         <v>16700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E62" s="3">
         <v>11100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3023,8 +3168,8 @@
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1211500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>107200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>128100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3363,25 +3530,28 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>199500</v>
       </c>
       <c r="N70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="O70" s="3">
         <v>149500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-241800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-222100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-194900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-150500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-141700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-145800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-136300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-129700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E76" s="3">
         <v>264000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>367100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>379400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>389900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>392000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>384100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>376800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>331800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-127200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-121800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-115700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1900</v>
       </c>
       <c r="M83" s="3">
         <v>1900</v>
       </c>
       <c r="N83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-13300</v>
       </c>
       <c r="M89" s="3">
         <v>-13300</v>
       </c>
       <c r="N89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-11700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>5300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>17200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-5000</v>
       </c>
       <c r="M94" s="3">
         <v>-5000</v>
       </c>
       <c r="N94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,60 +4812,66 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1019900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>37700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>256500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4631,8 +4879,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>11</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>11</v>
@@ -4649,8 +4897,8 @@
       <c r="L101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="E102" s="3">
         <v>965900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-55500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>241600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E8" s="3">
         <v>149400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>108200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>101900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E9" s="3">
         <v>102100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>76500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>79700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E10" s="3">
         <v>47300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,28 +920,29 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="3">
         <v>12900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5400</v>
       </c>
       <c r="J12" s="3">
         <v>5400</v>
@@ -938,28 +951,31 @@
         <v>5400</v>
       </c>
       <c r="L12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,81 +1024,87 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
-      </c>
-      <c r="P14" s="3">
-        <v>300</v>
       </c>
       <c r="Q14" s="3">
         <v>300</v>
       </c>
       <c r="R14" s="3">
+        <v>300</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
       </c>
       <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1091,11 +1113,11 @@
         <v>600</v>
       </c>
       <c r="M15" s="3">
+        <v>600</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E17" s="3">
         <v>168000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>133800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>121500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,28 +1393,28 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
@@ -1384,69 +1423,75 @@
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1460,11 +1505,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1493,10 +1538,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,17 +1784,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
@@ -1742,11 +1802,14 @@
       <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>886400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1009300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1125000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>214600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>222300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>246400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>276000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>312500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>277000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2329,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E43" s="3">
         <v>63400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E44" s="3">
         <v>165700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>145500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>121700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>132400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>143000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>42700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17800</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E45" s="3">
         <v>25600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1153100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1264100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1325000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>332200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>390900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>429300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>415900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>403600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>418900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>361800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>102800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2594,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E48" s="3">
         <v>172100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>146000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>129900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>90700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>84100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,49 +2806,52 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E52" s="3">
         <v>30300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
+      <c r="P52" s="3">
+        <v>400</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>11</v>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1432400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1466500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1475500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>468000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>486600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>518000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>491600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>451900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>397100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3009,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E57" s="3">
         <v>50000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,37 +3075,37 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>25100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>11</v>
@@ -2980,182 +3113,194 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E59" s="3">
         <v>21400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E60" s="3">
         <v>71500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1129200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1128200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1127300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>50200</v>
       </c>
       <c r="H61" s="3">
         <v>50200</v>
       </c>
       <c r="I61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J61" s="3">
         <v>16700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3171,8 +3316,8 @@
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1225300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1211000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1211500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>107200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>128100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,25 +3700,28 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>199500</v>
       </c>
       <c r="O70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="P70" s="3">
         <v>149500</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-241800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-222100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-194900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-169800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-145800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-136300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-129700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-122200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E76" s="3">
         <v>255500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>264000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>367100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>379400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>389900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>384100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>376800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>331800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-127200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-121800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-115700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1900</v>
       </c>
       <c r="N83" s="3">
         <v>1900</v>
       </c>
       <c r="O83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-89800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-13300</v>
       </c>
       <c r="N89" s="3">
         <v>-13300</v>
       </c>
       <c r="O89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-11700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>17200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-5000</v>
       </c>
       <c r="N94" s="3">
         <v>-5000</v>
       </c>
       <c r="O94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,75 +5057,81 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1019900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>37700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>256500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>46200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>11</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>11</v>
@@ -4900,8 +5148,8 @@
       <c r="M101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4915,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-115700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>965900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-55500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>241600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E8" s="3">
         <v>106400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>108200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>101900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>97100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E9" s="3">
         <v>83500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>76500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>79700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
         <v>22900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,31 +934,32 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5400</v>
       </c>
       <c r="K12" s="3">
         <v>5400</v>
@@ -954,28 +968,31 @@
         <v>5400</v>
       </c>
       <c r="M12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,87 +1044,93 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>300</v>
       </c>
       <c r="R14" s="3">
         <v>300</v>
       </c>
       <c r="S14" s="3">
+        <v>300</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
@@ -1116,11 +1139,11 @@
         <v>600</v>
       </c>
       <c r="N15" s="3">
+        <v>600</v>
+      </c>
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178400</v>
+      </c>
+      <c r="E17" s="3">
         <v>160400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>168000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-54000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-47500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,28 +1436,28 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
@@ -1426,72 +1466,78 @@
         <v>700</v>
       </c>
       <c r="P22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1508,11 +1554,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1541,10 +1587,13 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1787,17 +1848,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -1805,11 +1866,14 @@
       <c r="R29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>733300</v>
+      </c>
+      <c r="E41" s="3">
         <v>886400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1009300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1125000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>214600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>222300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>246400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>312500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>277000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,243 +2422,258 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E43" s="3">
         <v>48800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E44" s="3">
         <v>193500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>165700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>145500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>121700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>132400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>143000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>42700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E45" s="3">
         <v>24300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1153100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1264100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1325000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>332200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>390900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>429300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>415900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>403600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>418900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>361800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>102800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2597,61 +2702,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E48" s="3">
         <v>222700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>146000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>129900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>90700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>84100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,52 +2926,55 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E52" s="3">
         <v>56500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>11</v>
+      <c r="Q52" s="3">
+        <v>400</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>11</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1379400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1432400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1466500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1475500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>468000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>486600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>518000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>491600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>451900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>454800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>397100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,61 +3140,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,37 +3212,37 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>25100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>11</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>11</v>
@@ -3116,194 +3250,206 @@
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E60" s="3">
         <v>74300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1129200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1128200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1127300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>50200</v>
       </c>
       <c r="I61" s="3">
         <v>50200</v>
       </c>
       <c r="J61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E62" s="3">
         <v>21800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3319,8 +3465,8 @@
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1246900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1225300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1211000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1211500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>107200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3703,25 +3871,28 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>199500</v>
       </c>
       <c r="P70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="Q70" s="3">
         <v>149500</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-296600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-241800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-222100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-194900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-145800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-136300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-129700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-122200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E76" s="3">
         <v>207100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>255500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>264000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>367100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>379400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>389900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>384100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>376800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>331800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-127200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-121800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-115700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1900</v>
       </c>
       <c r="O83" s="3">
         <v>1900</v>
       </c>
       <c r="P83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-70600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-89800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-13300</v>
       </c>
       <c r="O89" s="3">
         <v>-13300</v>
       </c>
       <c r="P89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>17200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-5000</v>
       </c>
       <c r="O94" s="3">
         <v>-5000</v>
       </c>
       <c r="P94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,81 +5303,87 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1019900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>37700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>256500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>46200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>11</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>11</v>
@@ -5151,8 +5400,8 @@
       <c r="N101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-122900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>965900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-55500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>241600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E8" s="3">
         <v>100700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>106400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>149400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>108200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E9" s="3">
         <v>86400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>76500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,34 +948,35 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E12" s="3">
         <v>21300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5400</v>
       </c>
       <c r="L12" s="3">
         <v>5400</v>
@@ -971,28 +985,31 @@
         <v>5400</v>
       </c>
       <c r="N12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O12" s="3">
         <v>3600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,93 +1064,99 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
-      </c>
-      <c r="R14" s="3">
-        <v>300</v>
       </c>
       <c r="S14" s="3">
         <v>300</v>
       </c>
       <c r="T14" s="3">
+        <v>300</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
       </c>
       <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>600</v>
@@ -1142,11 +1165,11 @@
         <v>600</v>
       </c>
       <c r="O15" s="3">
+        <v>600</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E17" s="3">
         <v>178400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>168000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-77700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-54000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-70800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-47500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,28 +1479,28 @@
         <v>1000</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>700</v>
@@ -1469,75 +1509,81 @@
         <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1557,11 +1603,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1590,10 +1636,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-78600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-80400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1851,17 +1912,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>11</v>
@@ -1869,11 +1930,14 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-80400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-80400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>547900</v>
+      </c>
+      <c r="E41" s="3">
         <v>733300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>886400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1009300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1125000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>214600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>222300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>246400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>276000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>312500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>277000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,241 +2515,256 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E43" s="3">
         <v>43800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>63400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E44" s="3">
         <v>241900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>193500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>165700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>145500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>121700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>132400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>143000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>120700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17800</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>917300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1052000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1153100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1264100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1325000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>332200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>390900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>429300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>415900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>403600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>418900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>361800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>102800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>83800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2675,8 +2780,8 @@
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2705,64 +2810,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E48" s="3">
         <v>253300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>222700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>172100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>146000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>129900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>90700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>84100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,55 +3046,58 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E52" s="3">
         <v>66000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>800</v>
       </c>
       <c r="N52" s="3">
         <v>800</v>
       </c>
       <c r="O52" s="3">
+        <v>800</v>
+      </c>
+      <c r="P52" s="3">
         <v>900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>11</v>
+      <c r="R52" s="3">
+        <v>400</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>11</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1294500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1379400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1432400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1466500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1475500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>468000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>486600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>518000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>491600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>451900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>454800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>397100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>133700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E57" s="3">
         <v>69000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,37 +3349,37 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>25100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>11</v>
@@ -3253,206 +3387,218 @@
       <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E59" s="3">
         <v>25000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E60" s="3">
         <v>94200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1131100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1130100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1129200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1128200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1127300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>50200</v>
       </c>
       <c r="J61" s="3">
         <v>50200</v>
       </c>
       <c r="K61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="L61" s="3">
         <v>16700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
         <v>22600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3468,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1253500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1246900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1225300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1211000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1211500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>107200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>128100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3874,25 +4042,28 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>199500</v>
       </c>
       <c r="Q70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="R70" s="3">
         <v>149500</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-477400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-377000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-241800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-222100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-169800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-150500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-145800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-136300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-129700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-122200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E76" s="3">
         <v>132500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>255500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>264000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>367100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>379400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>389900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>392000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>384100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>376800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>331800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-127200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-121800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-115700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-80400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1900</v>
       </c>
       <c r="P83" s="3">
         <v>1900</v>
       </c>
       <c r="Q83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R83" s="3">
         <v>1400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-110300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-70600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-89800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-13300</v>
       </c>
       <c r="P89" s="3">
         <v>-13300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-11700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>17200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-5000</v>
       </c>
       <c r="P94" s="3">
         <v>-5000</v>
       </c>
       <c r="Q94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,87 +5549,93 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1019900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>256500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>46200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>11</v>
@@ -5403,8 +5652,8 @@
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-185400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-153100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-122900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-115700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>965900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-55500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>241600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E8" s="3">
         <v>109500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>149400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>108200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E9" s="3">
         <v>109300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>76500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,37 +961,38 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E12" s="3">
         <v>18700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>5400</v>
       </c>
       <c r="M12" s="3">
         <v>5400</v>
@@ -988,28 +1001,31 @@
         <v>5400</v>
       </c>
       <c r="O12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,99 +1083,105 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
-      </c>
-      <c r="S14" s="3">
-        <v>300</v>
       </c>
       <c r="T14" s="3">
         <v>300</v>
       </c>
       <c r="U14" s="3">
+        <v>300</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>900</v>
       </c>
       <c r="H15" s="3">
         <v>900</v>
       </c>
       <c r="I15" s="3">
+        <v>900</v>
+      </c>
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>600</v>
@@ -1168,11 +1190,11 @@
         <v>600</v>
       </c>
       <c r="P15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>209300</v>
+        <v>236700</v>
       </c>
       <c r="E17" s="3">
+        <v>207100</v>
+      </c>
+      <c r="F17" s="3">
         <v>178400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>168000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-99800</v>
+        <v>-89700</v>
       </c>
       <c r="E18" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-77700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-54000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,131 +1378,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-91700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-70800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
@@ -1482,28 +1521,28 @@
         <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
@@ -1512,78 +1551,84 @@
         <v>700</v>
       </c>
       <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-99800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1606,11 +1651,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1639,10 +1684,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-99800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-78600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-80400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1915,17 +1975,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -1933,11 +1993,14 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-80400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-80400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>454700</v>
+      </c>
+      <c r="E41" s="3">
         <v>547900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>733300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>886400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1009300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1125000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>214600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>222300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>276000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>312500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>277000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,126 +2607,135 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E43" s="3">
         <v>52700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E44" s="3">
         <v>283800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>241900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>193500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>165700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>145500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>121700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>132400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>143000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17800</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,129 +2743,135 @@
         <v>33000</v>
       </c>
       <c r="E45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F45" s="3">
         <v>33100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E46" s="3">
         <v>917300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1052000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1153100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1264100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1325000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>332200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>390900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>415900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>403600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>418900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>361800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>92400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>102800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>83800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>7400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2783,8 +2887,8 @@
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2813,67 +2917,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>283500</v>
+      </c>
+      <c r="E48" s="3">
         <v>267100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>253300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>222700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>172100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>146000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>129900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>90700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,58 +3165,61 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E52" s="3">
         <v>102800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>800</v>
       </c>
       <c r="O52" s="3">
         <v>800</v>
       </c>
       <c r="P52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>11</v>
+      <c r="S52" s="3">
+        <v>400</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>11</v>
@@ -3108,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1218100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1294500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1379400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1432400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1466500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1475500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>468000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>486600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>518000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>491600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>451900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>454800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>397100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3401,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E57" s="3">
         <v>67400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3352,37 +3485,37 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>25100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>11</v>
@@ -3390,218 +3523,230 @@
       <c r="U58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E59" s="3">
         <v>33400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E60" s="3">
         <v>101000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1135400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1131100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1130100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1129200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1128200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1127300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>50200</v>
       </c>
       <c r="K61" s="3">
         <v>50200</v>
       </c>
       <c r="L61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="M61" s="3">
         <v>16700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +3762,8 @@
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1266100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1253500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1246900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1225300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1211000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1211500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>128100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4045,25 +4212,28 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>199500</v>
       </c>
       <c r="R70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="S70" s="3">
         <v>149500</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-574600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-477400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-377000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-296600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-241800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-222100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-169800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-140300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-141700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-145800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-136300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-129700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-122200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E76" s="3">
         <v>41000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>255500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>264000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>367100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>379400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>389900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>392000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>384100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>376800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>331800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-127200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-121800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-115700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-80400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1900</v>
       </c>
       <c r="Q83" s="3">
         <v>1900</v>
       </c>
       <c r="R83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S83" s="3">
         <v>1400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-165200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-110300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-70600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-89800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-13300</v>
       </c>
       <c r="Q89" s="3">
         <v>-13300</v>
       </c>
       <c r="R89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-11700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>17200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-5000</v>
       </c>
       <c r="Q94" s="3">
         <v>-5000</v>
       </c>
       <c r="R94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="S94" s="3">
         <v>-8200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,93 +5794,99 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1019900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>256500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>46200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>11</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>11</v>
@@ -5655,8 +5903,8 @@
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5670,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-185400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-153100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-122900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-115700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>965900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-55500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>241600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,306 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F8" s="3">
         <v>147000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>109500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>100700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>106400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>149400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>108200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>101900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>94400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>113300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>97100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>98500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>92000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>67300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>40200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>31500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>26300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>17400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>97300</v>
+      </c>
+      <c r="F9" s="3">
         <v>153200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>109300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>86400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>83500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>102100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>75500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>76500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>68900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>79700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>59400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>65000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>59200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>44500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>29400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>23700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>21200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>14800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>22900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>47300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>33600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>33500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>22800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>10800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +987,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F12" s="3">
         <v>15200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>18700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>21300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>12900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5400</v>
       </c>
       <c r="O12" s="3">
         <v>5400</v>
       </c>
       <c r="P12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R12" s="3">
         <v>3600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,121 +1119,133 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>300</v>
-      </c>
-      <c r="S14" s="3">
-        <v>500</v>
       </c>
       <c r="T14" s="3">
         <v>300</v>
       </c>
       <c r="U14" s="3">
+        <v>500</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>300</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>700</v>
       </c>
       <c r="N15" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P15" s="3">
         <v>600</v>
       </c>
       <c r="Q15" s="3">
+        <v>600</v>
+      </c>
+      <c r="R15" s="3">
+        <v>600</v>
+      </c>
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1255,14 @@
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1282,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>172200</v>
+      </c>
+      <c r="F17" s="3">
         <v>236700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>207100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>178400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>160400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>168000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>133800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>126500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>112900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>121500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>95300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>99400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>88400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>65100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>45500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>38600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>34300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>24600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>18400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-97600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-77700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-54000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-25600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-24600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,143 +1444,157 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-86900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-91700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-70800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-47500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-13500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-21900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
@@ -1524,13 +1603,13 @@
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
@@ -1539,96 +1618,108 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>900</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
       </c>
       <c r="Q22" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
+        <v>700</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-95700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-99800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-78500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-54200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-19400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-25100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-19200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1654,14 +1745,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1687,10 +1778,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1848,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-95700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-99800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-78600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-54200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-19300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-97100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-80400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-54800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-27300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-25100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-19300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2052,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1978,29 +2099,35 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2188,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2256,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>10900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-97100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-80400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-54800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-27300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-19300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2460,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-97100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-80400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-54800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-27300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-19300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2631,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2657,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>390200</v>
+      </c>
+      <c r="F41" s="3">
         <v>454700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>547900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>733300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>886400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1009300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1125000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>159100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>214600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>222300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>246400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>276000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>312500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>277000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>35400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>54300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>49800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,274 +2789,304 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F43" s="3">
         <v>77200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>52700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>43800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>48800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>63400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>36700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>36000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>29800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>46000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>36300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>40100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>34500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>34400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>16200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>235700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>247000</v>
+      </c>
+      <c r="F44" s="3">
         <v>254700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>283800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>241900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>193500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>165700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>145500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>121700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>132400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>143000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>120700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>81600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>60300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>42700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>34300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>30300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>17800</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F45" s="3">
         <v>33000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>25600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>606500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>696000</v>
+      </c>
+      <c r="F46" s="3">
         <v>819500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>917300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1052000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1153100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1264100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1325000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>332200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>390900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>429300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>415900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>403600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>418900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>361800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>92400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>102800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>83800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2890,11 +3099,11 @@
       <c r="L47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2920,70 +3129,82 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>350900</v>
+      </c>
+      <c r="F48" s="3">
         <v>283500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>267100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>253300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>222700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>172100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>146000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>129900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>90700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>84100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>74200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>47500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>34500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>31900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>30500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>28000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3265,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3333,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3401,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F52" s="3">
         <v>109100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>102800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>66000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>56500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>30300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3537,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1062200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1141300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1218100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1294500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1379400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1432400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1466500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1475500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>468000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>486600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>518000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>491600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>451900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>454800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>397100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>125200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>133700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>112200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3635,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,75 +3661,83 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>68700</v>
+      </c>
+      <c r="F57" s="3">
         <v>74400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>67400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>69000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>45400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>50000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>51500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>53100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>30500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>48200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>26900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>38300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>27400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>17200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>14600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>200</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3488,271 +3755,295 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>25100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>11100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>11</v>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F59" s="3">
         <v>34900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>28700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>15100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>32800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F60" s="3">
         <v>109500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>101000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>94200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>74300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>71500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>73100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>89000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>45700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>66300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>72000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>47700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>56200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>40400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>21900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>25200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>47400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1134100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1136200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1135400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1131100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1130100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1129200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1128200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1127300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>50200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>50200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>20100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>21800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>24900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>30900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>30800</v>
       </c>
       <c r="S61" s="3">
         <v>30900</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F62" s="3">
         <v>21100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>22600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3765,17 +4056,23 @@
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4133,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4201,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4269,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1283300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1266100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1253500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1246900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1225300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1211000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1211500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>107200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>128100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>99700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>67800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>78000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>65300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>52800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>56000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>78400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4367,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4431,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4499,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4215,25 +4550,31 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>199500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>199500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>149500</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4635,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-743100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-676200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-574600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-477400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-377000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-296600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-241800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-222100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-194900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-169800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-150500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-140300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-142100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-141700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-145800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-136300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-129700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-122200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4771,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4839,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4907,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>132500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>207100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>255500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>264000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>367100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>379400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>389900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>392000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>384100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>376800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>331800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-127200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-121800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-115700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5043,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-97100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-80400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-54800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-27300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-19300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5214,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>2100</v>
       </c>
       <c r="Q83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5346,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5414,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5482,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5550,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5618,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-70500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-165200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-110300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-70600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-89800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-30700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-27100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-28700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-13300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-13300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-11700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-7800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5716,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-20400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-52900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-28100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>17200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5848,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5916,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-21500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-43000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-52900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-28200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-23400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-13400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6014,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6078,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6146,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6214,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,102 +6282,114 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1019900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>18200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>37700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>256500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>22900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>46200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>8500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>11</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>11</v>
@@ -5906,11 +6403,11 @@
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5921,66 +6418,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-93200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-185400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-153100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-122900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-115700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>965900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-55500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-24100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-29600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-36500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>35500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>241600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-18900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>26300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-10000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E8" s="3">
         <v>79900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>109500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>149400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>108200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>40200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E9" s="3">
         <v>82900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>153200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>86400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>29400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-14800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-6200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,46 +1002,47 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
         <v>12000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5400</v>
       </c>
       <c r="P12" s="3">
         <v>5400</v>
@@ -1037,28 +1051,31 @@
         <v>5400</v>
       </c>
       <c r="R12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S12" s="3">
         <v>3600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,84 +1142,90 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>500</v>
-      </c>
-      <c r="V14" s="3">
-        <v>300</v>
       </c>
       <c r="W14" s="3">
         <v>300</v>
       </c>
       <c r="X14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1100</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
@@ -1211,31 +1234,31 @@
         <v>1100</v>
       </c>
       <c r="H15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>900</v>
       </c>
       <c r="K15" s="3">
         <v>900</v>
       </c>
       <c r="L15" s="3">
+        <v>900</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>600</v>
       </c>
       <c r="Q15" s="3">
         <v>600</v>
@@ -1244,11 +1267,11 @@
         <v>600</v>
       </c>
       <c r="S15" s="3">
+        <v>600</v>
+      </c>
+      <c r="T15" s="3">
         <v>500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E17" s="3">
         <v>145700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>172200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>236700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>207100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>168000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>34300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-89700</v>
       </c>
       <c r="F18" s="3">
         <v>-89700</v>
       </c>
       <c r="G18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-97600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-77700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,158 +1479,165 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-83500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-86900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-91700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-70800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
@@ -1609,28 +1649,28 @@
         <v>1000</v>
       </c>
       <c r="K22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>700</v>
@@ -1639,87 +1679,93 @@
         <v>700</v>
       </c>
       <c r="U22" s="3">
+        <v>700</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-92900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-95700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-99800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-78500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,11 +1797,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1784,10 +1830,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-92900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-95700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-99800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-101700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-97100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-80400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2105,17 +2166,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>11</v>
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>11</v>
@@ -2123,11 +2184,14 @@
       <c r="W29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-101700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-97100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-80400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-101700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-97100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-80400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E41" s="3">
         <v>309900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>390200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>454700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>547900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>733300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>886400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1009300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1125000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>214600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>222300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>246400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>276000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>312500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>277000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>54300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E43" s="3">
         <v>34200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>63400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E44" s="3">
         <v>235700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>247000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>254700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>283800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>241900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>193500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>165700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>145500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>121700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>132400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>143000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>120700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>81600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17800</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E45" s="3">
         <v>26600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>33000</v>
       </c>
       <c r="G45" s="3">
         <v>33000</v>
       </c>
       <c r="H45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>547100</v>
+      </c>
+      <c r="E46" s="3">
         <v>606500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>696000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>819500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>917300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1052000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1153100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1264100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1325000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>332200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>390900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>429300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>415900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>403600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>418900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>361800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>92400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>102800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>83800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3076,20 +3181,20 @@
         <v>2300</v>
       </c>
       <c r="E47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F47" s="3">
         <v>7200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3105,8 +3210,8 @@
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3135,76 +3240,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E48" s="3">
         <v>344600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>350900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>283500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>253300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>222700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>172100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>146000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>129900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,67 +3524,70 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E52" s="3">
         <v>108800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>109100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>800</v>
       </c>
       <c r="R52" s="3">
         <v>800</v>
       </c>
       <c r="S52" s="3">
+        <v>800</v>
+      </c>
+      <c r="T52" s="3">
         <v>900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>11</v>
+      <c r="V52" s="3">
+        <v>400</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>11</v>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>986600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1062200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1141300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1218100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1294500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1379400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1432400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1466500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1475500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>468000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>486600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>518000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>491600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>451900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>454800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>397100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>125200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>133700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>112200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,81 +3793,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E57" s="3">
         <v>55300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
+      <c r="D58" s="3">
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3761,37 +3895,37 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>25100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>14200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>11</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>11</v>
@@ -3799,254 +3933,266 @@
       <c r="X58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="E59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F59" s="3">
         <v>21800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E60" s="3">
         <v>75800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>89000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1134100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1136200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1135400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1131100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1130100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1129200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1128200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1127300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>50200</v>
       </c>
       <c r="N61" s="3">
         <v>50200</v>
       </c>
       <c r="O61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="P61" s="3">
         <v>16700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E62" s="3">
         <v>55900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4062,8 +4208,8 @@
       <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1239700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1265800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1283300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1266100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1253500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1246900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1225300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1211000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1211500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>107200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>128100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4556,25 +4724,28 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>199500</v>
       </c>
       <c r="U70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="V70" s="3">
         <v>149500</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-802100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-743100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-676200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-574600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-477400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-377000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-241800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-222100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-194900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-169800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-150500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-140300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-142100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-141700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-145800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-136300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-129700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-122200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-253100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-203500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-142000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>207100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>255500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>264000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>367100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>379400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>389900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>392000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>384100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>376800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>331800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-127200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-121800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-115700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-101700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-97100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-80400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>9300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1900</v>
       </c>
       <c r="T83" s="3">
         <v>1900</v>
       </c>
       <c r="U83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V83" s="3">
         <v>1400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-70500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-165200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-110300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-70600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-89800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-13300</v>
       </c>
       <c r="T89" s="3">
         <v>-13300</v>
       </c>
       <c r="U89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-11700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>57100</v>
+        <v>-5300</v>
       </c>
       <c r="E91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>17200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-5000</v>
       </c>
       <c r="T94" s="3">
         <v>-5000</v>
       </c>
       <c r="U94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="V94" s="3">
         <v>-8200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,8 +6531,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6300,99 +6546,102 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1019900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>256500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>46200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>11</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>11</v>
@@ -6409,8 +6658,8 @@
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6424,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-64500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-185400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-153100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-122900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-115700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>965900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-55500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-29600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>241600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>26300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E8" s="3">
         <v>92200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>108200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>92000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E9" s="3">
         <v>86100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>82900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>153200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>86400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>76500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>79700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>29400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-14800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,49 +1015,50 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E12" s="3">
         <v>11900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>5400</v>
       </c>
       <c r="Q12" s="3">
         <v>5400</v>
@@ -1054,28 +1067,31 @@
         <v>5400</v>
       </c>
       <c r="S12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T12" s="3">
         <v>3600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,79 +1161,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
-      </c>
-      <c r="W14" s="3">
-        <v>300</v>
       </c>
       <c r="X14" s="3">
         <v>300</v>
       </c>
       <c r="Y14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,10 +1247,10 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>1200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1100</v>
       </c>
       <c r="G15" s="3">
         <v>1100</v>
@@ -1237,31 +1259,31 @@
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>900</v>
       </c>
       <c r="L15" s="3">
         <v>900</v>
       </c>
       <c r="M15" s="3">
+        <v>900</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>600</v>
       </c>
       <c r="R15" s="3">
         <v>600</v>
@@ -1270,11 +1292,11 @@
         <v>600</v>
       </c>
       <c r="T15" s="3">
+        <v>600</v>
+      </c>
+      <c r="U15" s="3">
         <v>500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E17" s="3">
         <v>150000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>145700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>236700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>207100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>126500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>121500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>34300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-89700</v>
       </c>
       <c r="G18" s="3">
         <v>-89700</v>
       </c>
       <c r="H18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-97600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-77700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-54000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,150 +1512,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-48600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-83500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-86900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-91700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-70800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,16 +1670,16 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
@@ -1652,28 +1691,28 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>700</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
       </c>
       <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>700</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
@@ -1682,90 +1721,96 @@
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-58800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-92900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-95700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-99800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-78500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1800,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1833,10 +1878,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-92900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-95700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-99800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-101700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-97100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-80400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2169,17 +2229,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>11</v>
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>11</v>
@@ -2187,11 +2247,14 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-101700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-97100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-80400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-101700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-97100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-80400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E41" s="3">
         <v>258600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>309900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>390200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>454700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>547900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>733300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>886400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1009300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>214600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>222300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>246400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>276000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>312500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>277000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>54300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>49800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,316 +2977,331 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E43" s="3">
         <v>42400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E44" s="3">
         <v>222400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>235700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>247000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>254700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>283800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>241900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>193500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>165700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>145500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>121700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>132400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>143000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>120700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>81600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17800</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E45" s="3">
         <v>23700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>33000</v>
       </c>
       <c r="H45" s="3">
         <v>33000</v>
       </c>
       <c r="I45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>497400</v>
+      </c>
+      <c r="E46" s="3">
         <v>547100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>606500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>696000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>819500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>917300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1052000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1153100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1264100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1325000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>332200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>390900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>429300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>415900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>403600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>418900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>361800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>92400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>102800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E47" s="3">
         <v>2300</v>
       </c>
       <c r="F47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G47" s="3">
         <v>7200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3213,8 +3317,8 @@
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3243,79 +3347,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>386600</v>
+      </c>
+      <c r="E48" s="3">
         <v>326300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>344600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>350900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>283500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>267100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>253300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>222700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>172100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>146000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>129900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>90700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3385,8 +3495,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,70 +3643,73 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E52" s="3">
         <v>110900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>108800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>109100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>800</v>
       </c>
       <c r="S52" s="3">
         <v>800</v>
       </c>
       <c r="T52" s="3">
+        <v>800</v>
+      </c>
+      <c r="U52" s="3">
         <v>900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>11</v>
+      <c r="W52" s="3">
+        <v>400</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>11</v>
@@ -3598,8 +3717,11 @@
       <c r="Y52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>968600</v>
+      </c>
+      <c r="E54" s="3">
         <v>986600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1062200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1141300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1218100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1294500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1379400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1432400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1466500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1475500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>468000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>486600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>518000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>491600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>451900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>454800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>397100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>125200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>112200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,79 +3923,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E57" s="3">
         <v>41100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3898,37 +4031,37 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>25100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>14200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>11</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>11</v>
@@ -3936,266 +4069,278 @@
       <c r="Y58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E59" s="3">
         <v>18500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>32800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E60" s="3">
         <v>59900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>109500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>66300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1135900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1134100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1136200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1135400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1131100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1130100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1129200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1128200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1127300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>50200</v>
       </c>
       <c r="O61" s="3">
         <v>50200</v>
       </c>
       <c r="P61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>16700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30900</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E62" s="3">
         <v>44800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4211,8 +4356,8 @@
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4220,8 +4365,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1267700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1239700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1265800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1283300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1266100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1253500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1246900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1225300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1211000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1211500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>107200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>128100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>67800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4727,25 +4894,28 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>199500</v>
       </c>
       <c r="V70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="W70" s="3">
         <v>149500</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-855700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-802100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-743100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-676200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-574600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-477400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-377000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-241800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-222100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-169800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-142100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-141700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-145800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-136300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-129700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-122200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-299100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-253100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-203500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-142000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>207100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>255500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>264000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>367100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>379400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>389900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>392000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>384100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>376800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>331800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-127200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-121800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-115700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-101700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-97100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-80400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1900</v>
       </c>
       <c r="U83" s="3">
         <v>1900</v>
       </c>
       <c r="V83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W83" s="3">
         <v>1400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-70500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-165200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-110300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-70600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-89800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-13300</v>
       </c>
       <c r="U89" s="3">
         <v>-13300</v>
       </c>
       <c r="V89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-11700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>17200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-5000</v>
       </c>
       <c r="U94" s="3">
         <v>-5000</v>
       </c>
       <c r="V94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="W94" s="3">
         <v>-8200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,13 +6776,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -6549,102 +6794,105 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1019900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>256500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>22900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>46200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>11</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>11</v>
@@ -6661,8 +6909,8 @@
       <c r="T101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6676,75 +6924,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-67600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-64500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-185400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-153100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-122900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-115700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>965900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-55500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-36500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>241600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>26300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>36200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E8" s="3">
         <v>102100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>108200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>92000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>17400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E9" s="3">
         <v>99900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>82900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>76500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>79700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>29400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-14800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-6200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,52 +1029,53 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5400</v>
       </c>
       <c r="R12" s="3">
         <v>5400</v>
@@ -1070,28 +1084,31 @@
         <v>5400</v>
       </c>
       <c r="T12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U12" s="3">
         <v>3600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,96 +1181,102 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
-      </c>
-      <c r="X14" s="3">
-        <v>300</v>
       </c>
       <c r="Y14" s="3">
         <v>300</v>
       </c>
       <c r="Z14" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>1200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1100</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
@@ -1262,31 +1285,31 @@
         <v>1100</v>
       </c>
       <c r="J15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>900</v>
       </c>
       <c r="M15" s="3">
         <v>900</v>
       </c>
       <c r="N15" s="3">
+        <v>900</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>600</v>
       </c>
       <c r="S15" s="3">
         <v>600</v>
@@ -1295,10 +1318,10 @@
         <v>600</v>
       </c>
       <c r="U15" s="3">
+        <v>600</v>
+      </c>
+      <c r="V15" s="3">
         <v>500</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>11</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E17" s="3">
         <v>155900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>145700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>236700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>207100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>178400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>126500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>121500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>99400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>34300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-89700</v>
       </c>
       <c r="H18" s="3">
         <v>-89700</v>
       </c>
       <c r="I18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-97600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-77700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,156 +1546,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-48800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-48600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-83500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-86900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-91700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-70800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-47500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,16 +1713,16 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
@@ -1694,28 +1734,28 @@
         <v>1000</v>
       </c>
       <c r="M22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>700</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
@@ -1724,93 +1764,99 @@
         <v>700</v>
       </c>
       <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-92900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-95700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-99800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-78500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1848,11 +1894,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1881,10 +1927,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-92900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-99800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-78600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-53500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-101700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-97100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-80400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2232,17 +2293,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>11</v>
@@ -2250,11 +2311,14 @@
       <c r="Y29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-53500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-101700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-97100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-80400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-53500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-101700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-97100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-80400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,73 +2918,74 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E41" s="3">
         <v>210800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>258600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>309900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>390200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>454700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>547900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>733300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>886400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1009300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>214600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>222300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>246400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>276000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>312500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>277000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>54300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>49800</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>11</v>
@@ -2906,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,73 +3070,76 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E43" s="3">
         <v>50800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>77200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12100</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>11</v>
@@ -3054,73 +3147,76 @@
       <c r="Z43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E44" s="3">
         <v>207100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>222400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>235700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>247000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>254700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>283800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>241900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>193500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>165700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>145500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>121700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>132400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>143000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>120700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>81600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>30300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>17800</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>11</v>
@@ -3128,73 +3224,76 @@
       <c r="Z44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E45" s="3">
         <v>28700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>33000</v>
       </c>
       <c r="I45" s="3">
         <v>33000</v>
       </c>
       <c r="J45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4200</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>11</v>
@@ -3202,73 +3301,76 @@
       <c r="Z45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E46" s="3">
         <v>497400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>547100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>606500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>696000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>819500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>917300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1052000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1153100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1264100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1325000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>332200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>390900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>429300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>415900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>403600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>418900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>361800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>92400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>102800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83800</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>11</v>
@@ -3276,34 +3378,37 @@
       <c r="Z46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2300</v>
       </c>
       <c r="F47" s="3">
         <v>2300</v>
       </c>
       <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
         <v>7200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>11</v>
@@ -3320,8 +3425,8 @@
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3350,73 +3455,76 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E48" s="3">
         <v>386600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>326300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>344600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>350900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>283500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>253300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>222700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>146000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>129900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>90700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>28000</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>11</v>
@@ -3424,8 +3532,11 @@
       <c r="Z48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,73 +3763,76 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E52" s="3">
         <v>82700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>109100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>800</v>
       </c>
       <c r="T52" s="3">
         <v>800</v>
       </c>
       <c r="U52" s="3">
+        <v>800</v>
+      </c>
+      <c r="V52" s="3">
         <v>900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>11</v>
+      <c r="X52" s="3">
+        <v>400</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>11</v>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,73 +3917,76 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>929200</v>
+      </c>
+      <c r="E54" s="3">
         <v>968600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>986600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1062200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1141300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1218100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1294500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1379400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1432400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1466500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1475500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>468000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>486600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>518000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>491600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>451900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>454800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>397100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>125200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>133700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>112200</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>11</v>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,73 +4054,74 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E57" s="3">
         <v>39500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14600</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>11</v>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4034,37 +4168,37 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>25100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>14200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>11</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>11</v>
@@ -4072,73 +4206,76 @@
       <c r="Z58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>32800</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>11</v>
@@ -4146,73 +4283,76 @@
       <c r="Z59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E60" s="3">
         <v>54600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>89000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47400</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>11</v>
@@ -4220,129 +4360,135 @@
       <c r="Z60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1136900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1135900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1134100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1136200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1135400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1131100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1130100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1129200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1128200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1127300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>50200</v>
       </c>
       <c r="P61" s="3">
         <v>50200</v>
       </c>
       <c r="Q61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="R61" s="3">
         <v>16700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30900</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E62" s="3">
         <v>77100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>11</v>
@@ -4359,8 +4505,8 @@
       <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,73 +4745,76 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1292100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1267700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1239700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1265800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1283300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1266100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1253500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1246900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1225300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1211000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1211500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>107200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>128100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78400</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>11</v>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4897,25 +5065,28 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>199500</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>199500</v>
       </c>
       <c r="W70" s="3">
+        <v>199500</v>
+      </c>
+      <c r="X70" s="3">
         <v>149500</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,73 +5159,76 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-926100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-855700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-802100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-743100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-676200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-574600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-477400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-377000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-296600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-241800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-222100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-169800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-140300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-142100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-141700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-145800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-136300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-129700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-122200</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>11</v>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,73 +5467,76 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-362900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-299100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-253100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-203500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-142000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-47900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>255500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>264000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>367100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>379400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>389900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>392000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>384100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>376800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>331800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-127200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-121800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-115700</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>11</v>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-53500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-101700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-97100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-80400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1900</v>
       </c>
       <c r="V83" s="3">
         <v>1900</v>
       </c>
       <c r="W83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X83" s="3">
         <v>1400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-70500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-165200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-110300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-70600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-89800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-28700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-13300</v>
       </c>
       <c r="V89" s="3">
         <v>-13300</v>
       </c>
       <c r="W89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-11700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>17200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-5000</v>
       </c>
       <c r="V94" s="3">
         <v>-5000</v>
       </c>
       <c r="W94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="X94" s="3">
         <v>-8200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,16 +7022,19 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -6797,105 +7043,108 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1019900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>37700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>256500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>22900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>46200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>11</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>11</v>
@@ -6912,8 +7161,8 @@
       <c r="U101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6927,78 +7176,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-67600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-64500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-93200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-185400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-153100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-122900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-115700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>965900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-55500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-36500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>241600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>26300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>36200</v>
       </c>
     </row>
